--- a/src/assets/excel/monthlyScore.xlsx
+++ b/src/assets/excel/monthlyScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pwang-Home\Documents\develop_proj\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{131B72CD-955E-43EC-AE62-6200A3F13A3F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31632B7B-7525-409A-80B4-5B2D47378D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19455" windowHeight="16245" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
+    <workbookView xWindow="34785" yWindow="1350" windowWidth="20325" windowHeight="15270" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>문법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,261 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gramjan</t>
-  </si>
-  <si>
-    <t>gramfeb</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>gramapr</t>
-  </si>
-  <si>
-    <t>grammay</t>
-  </si>
-  <si>
-    <t>gramjun</t>
-  </si>
-  <si>
-    <t>gramjul</t>
-  </si>
-  <si>
-    <t>gramaug</t>
-  </si>
-  <si>
-    <t>gramsep</t>
-  </si>
-  <si>
-    <t>gramoct</t>
-  </si>
-  <si>
-    <t>vocajan</t>
-  </si>
-  <si>
-    <t>vocafeb</t>
-  </si>
-  <si>
-    <t>vocamar</t>
-  </si>
-  <si>
-    <t>vocaapr</t>
-  </si>
-  <si>
-    <t>vocamay</t>
-  </si>
-  <si>
-    <t>vocajun</t>
-  </si>
-  <si>
-    <t>vocajul</t>
-  </si>
-  <si>
-    <t>vocaaug</t>
-  </si>
-  <si>
-    <t>vocasep</t>
-  </si>
-  <si>
-    <t>vocaoct</t>
-  </si>
-  <si>
-    <t>logicjan</t>
-  </si>
-  <si>
-    <t>logicfeb</t>
-  </si>
-  <si>
-    <t>logicmar</t>
-  </si>
-  <si>
-    <t>logicapr</t>
-  </si>
-  <si>
-    <t>logicmay</t>
-  </si>
-  <si>
-    <t>logicjun</t>
-  </si>
-  <si>
-    <t>logicjul</t>
-  </si>
-  <si>
-    <t>logicaug</t>
-  </si>
-  <si>
-    <t>logicsep</t>
-  </si>
-  <si>
-    <t>logicoct</t>
-  </si>
-  <si>
-    <t>readjan</t>
-  </si>
-  <si>
-    <t>readfeb</t>
-  </si>
-  <si>
-    <t>readmar</t>
-  </si>
-  <si>
-    <t>readapr</t>
-  </si>
-  <si>
-    <t>readmay</t>
-  </si>
-  <si>
-    <t>readjun</t>
-  </si>
-  <si>
-    <t>readjul</t>
-  </si>
-  <si>
-    <t>readaug</t>
-  </si>
-  <si>
-    <t>readsep</t>
-  </si>
-  <si>
-    <t>readoct</t>
-  </si>
-  <si>
-    <t>clcls1feb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1mar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1apr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1may</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1jun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1jul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1aug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1sep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls1oct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clcls2apr</t>
-  </si>
-  <si>
-    <t>clcls2may</t>
-  </si>
-  <si>
-    <t>clcls2jun</t>
-  </si>
-  <si>
-    <t>clcls2jul</t>
-  </si>
-  <si>
-    <t>clcls2aug</t>
-  </si>
-  <si>
-    <t>clcls2sep</t>
-  </si>
-  <si>
-    <t>clcls2oct</t>
-  </si>
-  <si>
-    <t>clcls3may</t>
-  </si>
-  <si>
-    <t>clcls3jun</t>
-  </si>
-  <si>
-    <t>clcls3jul</t>
-  </si>
-  <si>
-    <t>clcls3aug</t>
-  </si>
-  <si>
-    <t>clcls3sep</t>
-  </si>
-  <si>
-    <t>clcls3oct</t>
-  </si>
-  <si>
-    <t>algbrajun</t>
-  </si>
-  <si>
-    <t>algbrajul</t>
-  </si>
-  <si>
-    <t>algbraaug</t>
-  </si>
-  <si>
-    <t>algbrasep</t>
-  </si>
-  <si>
-    <t>algbraoct</t>
-  </si>
-  <si>
-    <t>algbranov</t>
-  </si>
-  <si>
-    <t>mltvraug</t>
-  </si>
-  <si>
-    <t>mltvrsep</t>
-  </si>
-  <si>
-    <t>mltvroct</t>
-  </si>
-  <si>
-    <t>engnroct</t>
-  </si>
-  <si>
-    <t>totmathjan</t>
-  </si>
-  <si>
-    <t>totmathfeb</t>
-  </si>
-  <si>
-    <t>totmathmar</t>
-  </si>
-  <si>
-    <t>totmathapr</t>
-  </si>
-  <si>
-    <t>totmathmay</t>
-  </si>
-  <si>
-    <t>totmathjun</t>
-  </si>
-  <si>
-    <t>totmathjul</t>
-  </si>
-  <si>
-    <t>totmathaug</t>
-  </si>
-  <si>
-    <t>totmathsep</t>
-  </si>
-  <si>
-    <t>totmathoct</t>
-  </si>
-  <si>
     <t>미1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,6 +105,222 @@
   <si>
     <t>10월</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthlygramjan</t>
+  </si>
+  <si>
+    <t>monthlygramfeb</t>
+  </si>
+  <si>
+    <t>monthlygrammar</t>
+  </si>
+  <si>
+    <t>monthlygramapr</t>
+  </si>
+  <si>
+    <t>monthlygrammay</t>
+  </si>
+  <si>
+    <t>monthlygramjun</t>
+  </si>
+  <si>
+    <t>monthlygramjul</t>
+  </si>
+  <si>
+    <t>monthlygramaug</t>
+  </si>
+  <si>
+    <t>monthlygramsep</t>
+  </si>
+  <si>
+    <t>monthlygramoct</t>
+  </si>
+  <si>
+    <t>monthlyvocajan</t>
+  </si>
+  <si>
+    <t>monthlyvocafeb</t>
+  </si>
+  <si>
+    <t>monthlyvocamar</t>
+  </si>
+  <si>
+    <t>monthlyvocaapr</t>
+  </si>
+  <si>
+    <t>monthlyvocamay</t>
+  </si>
+  <si>
+    <t>monthlyvocajun</t>
+  </si>
+  <si>
+    <t>monthlyvocajul</t>
+  </si>
+  <si>
+    <t>monthlyvocaaug</t>
+  </si>
+  <si>
+    <t>monthlyvocasep</t>
+  </si>
+  <si>
+    <t>monthlyvocaoct</t>
+  </si>
+  <si>
+    <t>monthlylogicjan</t>
+  </si>
+  <si>
+    <t>monthlylogicfeb</t>
+  </si>
+  <si>
+    <t>monthlylogicmar</t>
+  </si>
+  <si>
+    <t>monthlylogicapr</t>
+  </si>
+  <si>
+    <t>monthlylogicmay</t>
+  </si>
+  <si>
+    <t>monthlylogicjun</t>
+  </si>
+  <si>
+    <t>monthlylogicjul</t>
+  </si>
+  <si>
+    <t>monthlylogicaug</t>
+  </si>
+  <si>
+    <t>monthlylogicsep</t>
+  </si>
+  <si>
+    <t>monthlylogicoct</t>
+  </si>
+  <si>
+    <t>monthlyreadjan</t>
+  </si>
+  <si>
+    <t>monthlyreadfeb</t>
+  </si>
+  <si>
+    <t>monthlyreadmar</t>
+  </si>
+  <si>
+    <t>monthlyreadapr</t>
+  </si>
+  <si>
+    <t>monthlyreadmay</t>
+  </si>
+  <si>
+    <t>monthlyreadjun</t>
+  </si>
+  <si>
+    <t>monthlyreadjul</t>
+  </si>
+  <si>
+    <t>monthlyreadaug</t>
+  </si>
+  <si>
+    <t>monthlyreadsep</t>
+  </si>
+  <si>
+    <t>monthlyreadoct</t>
+  </si>
+  <si>
+    <t>monthlyclcls1feb</t>
+  </si>
+  <si>
+    <t>monthlyclcls1mar</t>
+  </si>
+  <si>
+    <t>monthlyclcls1apr</t>
+  </si>
+  <si>
+    <t>monthlyclcls1may</t>
+  </si>
+  <si>
+    <t>monthlyclcls1jun</t>
+  </si>
+  <si>
+    <t>monthlyclcls1jul</t>
+  </si>
+  <si>
+    <t>monthlyclcls1aug</t>
+  </si>
+  <si>
+    <t>monthlyclcls1sep</t>
+  </si>
+  <si>
+    <t>monthlyclcls1oct</t>
+  </si>
+  <si>
+    <t>monthlyclcls2apr</t>
+  </si>
+  <si>
+    <t>monthlyclcls2may</t>
+  </si>
+  <si>
+    <t>monthlyclcls2jun</t>
+  </si>
+  <si>
+    <t>monthlyclcls2jul</t>
+  </si>
+  <si>
+    <t>monthlyclcls2aug</t>
+  </si>
+  <si>
+    <t>monthlyclcls2sep</t>
+  </si>
+  <si>
+    <t>monthlyclcls2oct</t>
+  </si>
+  <si>
+    <t>monthlyclcls3may</t>
+  </si>
+  <si>
+    <t>monthlyclcls3jun</t>
+  </si>
+  <si>
+    <t>monthlyclcls3jul</t>
+  </si>
+  <si>
+    <t>monthlyclcls3aug</t>
+  </si>
+  <si>
+    <t>monthlyclcls3sep</t>
+  </si>
+  <si>
+    <t>monthlyclcls3oct</t>
+  </si>
+  <si>
+    <t>monthlyalgbrajun</t>
+  </si>
+  <si>
+    <t>monthlyalgbrajul</t>
+  </si>
+  <si>
+    <t>monthlyalgbraaug</t>
+  </si>
+  <si>
+    <t>monthlyalgbrasep</t>
+  </si>
+  <si>
+    <t>monthlyalgbraoct</t>
+  </si>
+  <si>
+    <t>monthlyalgbranov</t>
+  </si>
+  <si>
+    <t>monthlymltvraug</t>
+  </si>
+  <si>
+    <t>monthlymltvrsep</t>
+  </si>
+  <si>
+    <t>monthlymltvroct</t>
+  </si>
+  <si>
+    <t>monthlyengnroct</t>
   </si>
 </sst>
 </file>
@@ -356,7 +328,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -445,20 +417,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,6 +433,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -477,12 +443,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,9 +463,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -543,7 +503,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -649,7 +609,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -791,7 +751,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,383 +761,363 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD5EB3-A097-4BF6-9A2A-A1E6BBA64179}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AX3" sqref="AX3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:82" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="3" t="s">
+    <row r="1" spans="1:82" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="V1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="X1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AA1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AB1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AC1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AE1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AF1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AG1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AH1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AI1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AK1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AL1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="AM1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="AN1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="AO1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="AP1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="AR1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="AS1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="AT1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="AU1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="AV1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="AW1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="AX1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="AY1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BA1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BB1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BC1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BD1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BE1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BF1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BG1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BH1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BI1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BK1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="BL1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="BM1" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="BN1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="BO1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="BP1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="BR1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BU1" s="1"/>
+      <c r="BV1" s="1"/>
+      <c r="BW1" s="1"/>
+      <c r="BX1" s="1"/>
+      <c r="BY1" s="1"/>
+      <c r="BZ1" s="1"/>
+      <c r="CA1" s="1"/>
+      <c r="CB1" s="1"/>
+      <c r="CC1" s="1"/>
+      <c r="CD1" s="1"/>
     </row>
     <row r="2" spans="1:82" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>55.600000000000009</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>46.4</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>40</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>48.8</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1">
         <v>35.200000000000003</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="1">
         <v>40</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="1">
         <v>32.799999999999997</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="1">
         <v>36.799999999999997</v>
       </c>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2">
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1">
         <v>75.2</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="1">
         <v>40</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="1">
         <v>37.6</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="1">
         <v>62.4</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2">
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1">
         <v>55.399999999999991</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>54.6</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AG2" s="1">
         <v>48.2</v>
       </c>
-      <c r="AH2" s="2">
+      <c r="AH2" s="1">
         <v>63.2</v>
       </c>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-      <c r="AL2" s="2"/>
-      <c r="AM2" s="2"/>
-      <c r="AN2" s="2"/>
-      <c r="AO2" s="2">
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1">
         <v>48.2</v>
       </c>
-      <c r="AP2" s="2">
+      <c r="AP2" s="1">
         <v>67.099999999999994</v>
       </c>
-      <c r="AQ2" s="2">
+      <c r="AQ2" s="1">
         <v>63.750000000000007</v>
       </c>
-      <c r="AR2" s="2"/>
-      <c r="AS2" s="2"/>
-      <c r="AT2" s="2"/>
-      <c r="AU2" s="2"/>
-      <c r="AV2" s="2"/>
-      <c r="AW2" s="2"/>
-      <c r="AX2" s="2">
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1">
         <v>59.8</v>
       </c>
-      <c r="AY2" s="2"/>
-      <c r="AZ2" s="2"/>
-      <c r="BA2" s="2"/>
-      <c r="BB2" s="2"/>
-      <c r="BC2" s="2"/>
-      <c r="BD2" s="2"/>
-      <c r="BE2" s="2"/>
-      <c r="BF2" s="2"/>
-      <c r="BG2" s="2"/>
-      <c r="BH2" s="2"/>
-      <c r="BI2" s="2"/>
-      <c r="BJ2" s="2"/>
-      <c r="BK2" s="2"/>
-      <c r="BL2" s="2"/>
-      <c r="BM2" s="2"/>
-      <c r="BN2" s="2"/>
-      <c r="BO2" s="2"/>
-      <c r="BP2" s="2"/>
-      <c r="BQ2" s="2"/>
-      <c r="BR2" s="2"/>
-      <c r="BS2" s="2"/>
-      <c r="BT2" s="2"/>
-      <c r="BU2" s="2"/>
-      <c r="BV2" s="2"/>
-      <c r="BW2" s="2"/>
-      <c r="BX2" s="2"/>
-      <c r="BY2" s="2"/>
-      <c r="BZ2" s="2"/>
-      <c r="CA2" s="2"/>
-      <c r="CB2" s="2"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+      <c r="BL2" s="1"/>
+      <c r="BM2" s="1"/>
+      <c r="BN2" s="1"/>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+      <c r="BW2" s="1"/>
+      <c r="BX2" s="1"/>
+      <c r="BY2" s="1"/>
+      <c r="BZ2" s="1"/>
+      <c r="CA2" s="1"/>
+      <c r="CB2" s="1"/>
+      <c r="CC2" s="1"/>
+      <c r="CD2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1196,350 +1136,350 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="O1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>88</v>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="O1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1">
         <v>13.9</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <f>(B2/25)*100</f>
         <v>55.600000000000009</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="2">
         <f>(E2/G2)*100</f>
         <v>35.200000000000003</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>12.5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>9.4</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="2">
         <f>(H2/J2)*100</f>
         <v>75.2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="3">
         <v>12.5</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>27.7</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="2">
         <f>(K2/M2)*100</f>
         <v>55.399999999999991</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="9"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1">
         <v>11.6</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C5" si="0">(B3/25)*100</f>
         <v>46.4</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="2">
         <f t="shared" ref="F3:F5" si="1">(E3/G3)*100</f>
         <v>40</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="3">
         <v>12.5</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="2">
         <f t="shared" ref="I3:I5" si="2">(H3/J3)*100</f>
         <v>40</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="3">
         <v>12.5</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>27.3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="2">
         <f t="shared" ref="L3:L5" si="3">(K3/M3)*100</f>
         <v>54.6</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="3">
         <v>50</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>48.2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="2">
         <v>48.2</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="4">
         <v>100</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="9"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="7"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>25</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="2">
         <f t="shared" si="1"/>
         <v>32.799999999999997</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="3">
         <v>12.5</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>4.7</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="2">
         <f t="shared" si="2"/>
         <v>37.6</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="3">
         <v>12.5</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>24.1</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="2">
         <f t="shared" si="3"/>
         <v>48.2</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>50</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O4" s="1">
         <v>67.099999999999994</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="2">
         <v>67.099999999999994</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="4">
         <v>100</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="9"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="7"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1">
         <v>12.2</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>48.8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>25</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="2">
         <f t="shared" si="1"/>
         <v>36.799999999999997</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="3">
         <v>12.5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>7.8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="2">
         <f t="shared" si="2"/>
         <v>62.4</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="3">
         <v>12.5</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>31.6</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="2">
         <f t="shared" si="3"/>
         <v>63.2</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="3">
         <v>50</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>35.700000000000003</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="5">
         <f>(O5/Q5)*100</f>
         <v>63.750000000000007</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="4">
         <v>56</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="1">
         <v>26.3</v>
       </c>
-      <c r="S5" s="12">
+      <c r="S5" s="5">
         <f>(R5/T5)*100</f>
         <v>59.77272727272728</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="4">
         <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="Q6" s="7"/>
-      <c r="T6" s="7"/>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="Q6" s="4"/>
+      <c r="T6" s="4"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="Q7" s="7"/>
-      <c r="T7" s="7"/>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="Q7" s="4"/>
+      <c r="T7" s="4"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="Q8" s="7"/>
-      <c r="T8" s="7"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="Q8" s="4"/>
+      <c r="T8" s="4"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="Q9" s="7"/>
-      <c r="T9" s="7"/>
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="Q9" s="4"/>
+      <c r="T9" s="4"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="Q10" s="7"/>
-      <c r="T10" s="7"/>
+      <c r="A10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="T10" s="4"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="Q11" s="7"/>
-      <c r="T11" s="7"/>
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="T11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R2:T4"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/excel/monthlyScore.xlsx
+++ b/src/assets/excel/monthlyScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pwang-Home\Documents\develop_proj\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31632B7B-7525-409A-80B4-5B2D47378D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED3A6E-F5EB-452D-AA29-182EBBA37E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34785" yWindow="1350" windowWidth="20325" windowHeight="15270" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
+    <workbookView xWindow="34785" yWindow="1350" windowWidth="20325" windowHeight="15270" activeTab="1" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -436,13 +425,13 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -463,9 +452,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -503,7 +492,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -609,7 +598,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -751,7 +740,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -761,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD5EB3-A097-4BF6-9A2A-A1E6BBA64179}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07E009-3050-49C2-B8EF-B14BE0ECF409}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,27 +1128,27 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6" t="s">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1170,7 +1159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1214,14 +1203,17 @@
       <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1229,7 +1221,7 @@
         <v>11.6</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C5" si="0">(B3/25)*100</f>
+        <f t="shared" ref="C3:C6" si="0">(B3/25)*100</f>
         <v>46.4</v>
       </c>
       <c r="D3" s="3">
@@ -1239,7 +1231,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F5" si="1">(E3/G3)*100</f>
+        <f t="shared" ref="F3:F6" si="1">(E3/G3)*100</f>
         <v>40</v>
       </c>
       <c r="G3" s="3">
@@ -1249,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I5" si="2">(H3/J3)*100</f>
+        <f t="shared" ref="I3:I6" si="2">(H3/J3)*100</f>
         <v>40</v>
       </c>
       <c r="J3" s="3">
@@ -1259,7 +1251,7 @@
         <v>27.3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L5" si="3">(K3/M3)*100</f>
+        <f t="shared" ref="L3:L6" si="3">(K3/M3)*100</f>
         <v>54.6</v>
       </c>
       <c r="M3" s="3">
@@ -1274,11 +1266,14 @@
       <c r="Q3" s="4">
         <v>100</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="7"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1331,11 +1326,14 @@
       <c r="Q4" s="4">
         <v>100</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="7"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1399,20 +1397,86 @@
       <c r="T5" s="4">
         <v>44</v>
       </c>
+      <c r="U5" s="6"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="B6" s="1">
+        <v>11.1</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>44.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="1"/>
+        <v>53.6</v>
+      </c>
+      <c r="G6" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="2"/>
+        <v>38.4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>65.2</v>
+      </c>
+      <c r="M6" s="3">
+        <v>50</v>
+      </c>
+      <c r="O6" s="1">
+        <v>15.4</v>
+      </c>
+      <c r="P6" s="5">
+        <f>(O6/Q6)*100</f>
+        <v>64.166666666666671</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="S6" s="5">
+        <f>(R6/T6)*100</f>
+        <v>54.791666666666671</v>
+      </c>
+      <c r="T6" s="4">
+        <v>48</v>
+      </c>
+      <c r="U6" s="1">
+        <v>15.2</v>
+      </c>
+      <c r="V6" s="5">
+        <f>(U6/W6)*100</f>
+        <v>54.285714285714285</v>
+      </c>
+      <c r="W6" s="4">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1423,8 +1487,9 @@
       <c r="M7" s="3"/>
       <c r="Q7" s="4"/>
       <c r="T7" s="4"/>
+      <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1435,8 +1500,9 @@
       <c r="M8" s="3"/>
       <c r="Q8" s="4"/>
       <c r="T8" s="4"/>
+      <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1447,8 +1513,9 @@
       <c r="M9" s="3"/>
       <c r="Q9" s="4"/>
       <c r="T9" s="4"/>
+      <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1459,8 +1526,9 @@
       <c r="M10" s="3"/>
       <c r="Q10" s="4"/>
       <c r="T10" s="4"/>
+      <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1471,9 +1539,11 @@
       <c r="M11" s="3"/>
       <c r="Q11" s="4"/>
       <c r="T11" s="4"/>
+      <c r="W11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="U2:W5"/>
     <mergeCell ref="R2:T4"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>

--- a/src/assets/excel/monthlyScore.xlsx
+++ b/src/assets/excel/monthlyScore.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDED3A6E-F5EB-452D-AA29-182EBBA37E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3B6F5-3766-4DA9-A4B2-AEEE27605E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34785" yWindow="1350" windowWidth="20325" windowHeight="15270" activeTab="1" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
+    <workbookView xWindow="11565" yWindow="360" windowWidth="25980" windowHeight="20460" activeTab="1" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>문법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +321,10 @@
   </si>
   <si>
     <t>monthlyengnroct</t>
+  </si>
+  <si>
+    <t>선대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -359,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -400,13 +415,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -434,6 +524,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -452,9 +566,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -492,7 +606,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -598,7 +712,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -740,7 +854,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD5EB3-A097-4BF6-9A2A-A1E6BBA64179}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BK1" sqref="BK1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1117,10 +1231,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07E009-3050-49C2-B8EF-B14BE0ECF409}">
-  <dimension ref="A1:W11"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1128,7 +1242,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1158,8 +1272,11 @@
       <c r="U1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1212,8 +1329,11 @@
       <c r="U2" s="6"/>
       <c r="V2" s="7"/>
       <c r="W2" s="7"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="12"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1221,7 +1341,7 @@
         <v>11.6</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C6" si="0">(B3/25)*100</f>
+        <f t="shared" ref="C3:C7" si="0">(B3/25)*100</f>
         <v>46.4</v>
       </c>
       <c r="D3" s="3">
@@ -1231,7 +1351,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F6" si="1">(E3/G3)*100</f>
+        <f t="shared" ref="F3:F7" si="1">(E3/G3)*100</f>
         <v>40</v>
       </c>
       <c r="G3" s="3">
@@ -1241,7 +1361,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I6" si="2">(H3/J3)*100</f>
+        <f t="shared" ref="I3:I7" si="2">(H3/J3)*100</f>
         <v>40</v>
       </c>
       <c r="J3" s="3">
@@ -1251,7 +1371,7 @@
         <v>27.3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L6" si="3">(K3/M3)*100</f>
+        <f t="shared" ref="L3:L7" si="3">(K3/M3)*100</f>
         <v>54.6</v>
       </c>
       <c r="M3" s="3">
@@ -1272,8 +1392,11 @@
       <c r="U3" s="6"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1332,8 +1455,11 @@
       <c r="U4" s="6"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1400,8 +1526,11 @@
       <c r="U5" s="6"/>
       <c r="V5" s="7"/>
       <c r="W5" s="7"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="8"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1475,21 +1604,96 @@
       <c r="W6" s="4">
         <v>28</v>
       </c>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="Q7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="W7" s="4"/>
+      <c r="B7" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>39.6</v>
+      </c>
+      <c r="D7" s="3">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>58.4</v>
+      </c>
+      <c r="G7" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="2"/>
+        <v>47.2</v>
+      </c>
+      <c r="J7" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>63.4</v>
+      </c>
+      <c r="M7" s="3">
+        <v>50</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8</v>
+      </c>
+      <c r="P7" s="5">
+        <f>(O7/Q7)*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>12</v>
+      </c>
+      <c r="R7" s="1">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="S7" s="5">
+        <f>(R7/T7)*100</f>
+        <v>62.187499999999993</v>
+      </c>
+      <c r="T7" s="4">
+        <v>32</v>
+      </c>
+      <c r="U7" s="1">
+        <v>17</v>
+      </c>
+      <c r="V7" s="5">
+        <f>(U7/W7)*100</f>
+        <v>47.222222222222221</v>
+      </c>
+      <c r="W7" s="4">
+        <v>36</v>
+      </c>
+      <c r="X7" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="Y7" s="5">
+        <f t="shared" ref="Y7:Y11" si="4">(X7/Z7)*100</f>
+        <v>57.499999999999993</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>20</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1501,8 +1705,13 @@
       <c r="Q8" s="4"/>
       <c r="T8" s="4"/>
       <c r="W8" s="4"/>
+      <c r="Y8" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1514,8 +1723,13 @@
       <c r="Q9" s="4"/>
       <c r="T9" s="4"/>
       <c r="W9" s="4"/>
+      <c r="Y9" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,8 +1741,13 @@
       <c r="Q10" s="4"/>
       <c r="T10" s="4"/>
       <c r="W10" s="4"/>
+      <c r="Y10" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1540,16 +1759,22 @@
       <c r="Q11" s="4"/>
       <c r="T11" s="4"/>
       <c r="W11" s="4"/>
+      <c r="Y11" s="5" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z11" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="X2:Z6"/>
     <mergeCell ref="U2:W5"/>
     <mergeCell ref="R2:T4"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="O2:Q2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/excel/monthlyScore.xlsx
+++ b/src/assets/excel/monthlyScore.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esang\Documents\work\devel\scboard24\scboard24\src\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A3B6F5-3766-4DA9-A4B2-AEEE27605E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3F56A8-D24E-4379-8E95-89A331F5CDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="360" windowWidth="25980" windowHeight="20460" activeTab="1" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
   </bookViews>
@@ -20,17 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -496,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,16 +504,16 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -534,6 +523,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,9 +558,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -606,7 +598,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -712,7 +704,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -854,7 +846,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1233,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07E009-3050-49C2-B8EF-B14BE0ECF409}">
   <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U16" sqref="U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1243,26 +1235,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1320,15 +1312,15 @@
       <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
       <c r="X2" s="10"/>
       <c r="Y2" s="11"/>
       <c r="Z2" s="12"/>
@@ -1341,7 +1333,7 @@
         <v>11.6</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C7" si="0">(B3/25)*100</f>
+        <f t="shared" ref="C3:C8" si="0">(B3/25)*100</f>
         <v>46.4</v>
       </c>
       <c r="D3" s="3">
@@ -1351,7 +1343,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F7" si="1">(E3/G3)*100</f>
+        <f t="shared" ref="F3:F11" si="1">(E3/G3)*100</f>
         <v>40</v>
       </c>
       <c r="G3" s="3">
@@ -1361,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I7" si="2">(H3/J3)*100</f>
+        <f t="shared" ref="I3:I8" si="2">(H3/J3)*100</f>
         <v>40</v>
       </c>
       <c r="J3" s="3">
@@ -1371,7 +1363,7 @@
         <v>27.3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L7" si="3">(K3/M3)*100</f>
+        <f t="shared" ref="L3:L8" si="3">(K3/M3)*100</f>
         <v>54.6</v>
       </c>
       <c r="M3" s="3">
@@ -1386,15 +1378,15 @@
       <c r="Q3" s="4">
         <v>100</v>
       </c>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="8"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1449,15 +1441,15 @@
       <c r="Q4" s="4">
         <v>100</v>
       </c>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="8"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
@@ -1523,12 +1515,12 @@
       <c r="T5" s="4">
         <v>44</v>
       </c>
-      <c r="U5" s="6"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="8"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="9"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -1604,9 +1596,9 @@
       <c r="W6" s="4">
         <v>28</v>
       </c>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="16"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -1689,7 +1681,7 @@
         <f t="shared" ref="Y7:Y11" si="4">(X7/Z7)*100</f>
         <v>57.499999999999993</v>
       </c>
-      <c r="Z7" s="9">
+      <c r="Z7" s="7">
         <v>20</v>
       </c>
     </row>
@@ -1697,19 +1689,84 @@
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="Q8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="W8" s="4"/>
-      <c r="Y8" s="5" t="e">
+      <c r="E8" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="F8" s="6">
+        <f t="shared" si="1"/>
+        <v>47.2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="J8" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="M8" s="3">
+        <v>50</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="P8" s="5">
+        <f>(O8/Q8)*100</f>
+        <v>68.75</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>8</v>
+      </c>
+      <c r="R8" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="S8" s="5">
+        <f>(R8/T8)*100</f>
+        <v>58.5</v>
+      </c>
+      <c r="T8" s="4">
+        <v>20</v>
+      </c>
+      <c r="U8" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="V8" s="5">
+        <f>(U8/W8)*100</f>
+        <v>48.5</v>
+      </c>
+      <c r="W8" s="4">
+        <v>40</v>
+      </c>
+      <c r="X8" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="Y8" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z8" s="4"/>
+        <v>50.312500000000007</v>
+      </c>
+      <c r="Z8" s="4">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -1717,6 +1774,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
+      <c r="F9" s="6"/>
       <c r="G9" s="3"/>
       <c r="J9" s="3"/>
       <c r="M9" s="3"/>
@@ -1735,6 +1793,7 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="3"/>
       <c r="J10" s="3"/>
       <c r="M10" s="3"/>
@@ -1753,6 +1812,7 @@
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
+      <c r="F11" s="6"/>
       <c r="G11" s="3"/>
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>

--- a/src/assets/excel/monthlyScore.xlsx
+++ b/src/assets/excel/monthlyScore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\pwang\devel\scboard24\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3F56A8-D24E-4379-8E95-89A331F5CDA0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91DFFDA-3FED-4111-80B2-F4A8BB6D8DED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11565" yWindow="360" windowWidth="25980" windowHeight="20460" activeTab="1" xr2:uid="{ED940DF7-AC3E-43EB-B102-DB7FB3AC0941}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>문법</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,19 +300,24 @@
     <t>monthlyalgbranov</t>
   </si>
   <si>
+    <t>monthlymltvrsep</t>
+  </si>
+  <si>
+    <t>monthlymltvroct</t>
+  </si>
+  <si>
+    <t>monthlyengnroct</t>
+  </si>
+  <si>
+    <t>선대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>monthlymltvraug</t>
-  </si>
-  <si>
-    <t>monthlymltvrsep</t>
-  </si>
-  <si>
-    <t>monthlymltvroct</t>
-  </si>
-  <si>
-    <t>monthlyengnroct</t>
-  </si>
-  <si>
-    <t>선대</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +354,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,6 +364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +524,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,6 +552,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -856,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50FD5EB3-A097-4BF6-9A2A-A1E6BBA64179}">
   <dimension ref="A1:CD2"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" workbookViewId="0">
-      <selection activeCell="BK1" sqref="BK1"/>
+    <sheetView topLeftCell="BA1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,16 +1091,16 @@
         <v>84</v>
       </c>
       <c r="BQ1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="BR1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="BU1" s="1"/>
       <c r="BV1" s="1"/>
@@ -1223,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF07E009-3050-49C2-B8EF-B14BE0ECF409}">
-  <dimension ref="A1:Z11"/>
+  <dimension ref="A1:AC11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1234,27 +1257,27 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
       <c r="O1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1265,10 +1288,13 @@
         <v>6</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1312,20 +1338,23 @@
       <c r="M2" s="3">
         <v>50</v>
       </c>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="12"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1333,7 +1362,7 @@
         <v>11.6</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C8" si="0">(B3/25)*100</f>
+        <f t="shared" ref="C3:C9" si="0">(B3/25)*100</f>
         <v>46.4</v>
       </c>
       <c r="D3" s="3">
@@ -1343,7 +1372,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F11" si="1">(E3/G3)*100</f>
+        <f t="shared" ref="F3:F9" si="1">(E3/G3)*100</f>
         <v>40</v>
       </c>
       <c r="G3" s="3">
@@ -1353,7 +1382,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="2">
-        <f t="shared" ref="I3:I8" si="2">(H3/J3)*100</f>
+        <f t="shared" ref="I3:I9" si="2">(H3/J3)*100</f>
         <v>40</v>
       </c>
       <c r="J3" s="3">
@@ -1363,7 +1392,7 @@
         <v>27.3</v>
       </c>
       <c r="L3" s="2">
-        <f t="shared" ref="L3:L8" si="3">(K3/M3)*100</f>
+        <f t="shared" ref="L3:L9" si="3">(K3/M3)*100</f>
         <v>54.6</v>
       </c>
       <c r="M3" s="3">
@@ -1378,17 +1407,20 @@
       <c r="Q3" s="4">
         <v>100</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="9"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="9"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1441,17 +1473,20 @@
       <c r="Q4" s="4">
         <v>100</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="9"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1515,14 +1550,17 @@
       <c r="T5" s="4">
         <v>44</v>
       </c>
-      <c r="U5" s="13"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="9"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="15"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="15"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1596,11 +1634,14 @@
       <c r="W6" s="4">
         <v>28</v>
       </c>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="17"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1684,8 +1725,11 @@
       <c r="Z7" s="7">
         <v>20</v>
       </c>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="15"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1696,7 +1740,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>25</v>
+      </c>
       <c r="E8" s="1">
         <v>5.9</v>
       </c>
@@ -1767,27 +1813,99 @@
       <c r="Z8" s="4">
         <v>32</v>
       </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="15"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="M9" s="3"/>
+      <c r="B9" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G9" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="2"/>
+        <v>48.8</v>
+      </c>
+      <c r="J9" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>34</v>
+      </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="M9" s="3">
+        <v>50</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
       <c r="Q9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="Y9" s="5" t="e">
+      <c r="R9" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S9" s="5">
+        <f t="shared" ref="S9:S11" si="5">(R9/T9)*100</f>
+        <v>66.25</v>
+      </c>
+      <c r="T9" s="4">
+        <v>8</v>
+      </c>
+      <c r="U9" s="1">
+        <v>19.5</v>
+      </c>
+      <c r="V9" s="5">
+        <f>(U9/W9)*100</f>
+        <v>48.75</v>
+      </c>
+      <c r="W9" s="4">
+        <v>40</v>
+      </c>
+      <c r="X9" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="Y9" s="5">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z9" s="4"/>
+        <v>57.222222222222229</v>
+      </c>
+      <c r="Z9" s="4">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="AB9" s="21">
+        <f>(AA9/AC9)*100</f>
+        <v>65.625</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1798,6 +1916,7 @@
       <c r="J10" s="3"/>
       <c r="M10" s="3"/>
       <c r="Q10" s="4"/>
+      <c r="S10" s="5"/>
       <c r="T10" s="4"/>
       <c r="W10" s="4"/>
       <c r="Y10" s="5" t="e">
@@ -1805,8 +1924,9 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z10" s="4"/>
+      <c r="AC10" s="20"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1817,6 +1937,7 @@
       <c r="J11" s="3"/>
       <c r="M11" s="3"/>
       <c r="Q11" s="4"/>
+      <c r="S11" s="5"/>
       <c r="T11" s="4"/>
       <c r="W11" s="4"/>
       <c r="Y11" s="5" t="e">
@@ -1824,9 +1945,11 @@
         <v>#DIV/0!</v>
       </c>
       <c r="Z11" s="4"/>
+      <c r="AC11" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="AA2:AC8"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="X2:Z6"/>
